--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1254,7 +1254,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1607710454750381</v>
+        <v>0.1628190748027225</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2213320891091516</v>
+        <v>0.2197075935096862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2033772729740761</v>
+        <v>0.2056243851531512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2128401521744671</v>
+        <v>0.2172263535105144</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2315654465056155</v>
+        <v>0.2292660573584009</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3216142662300533</v>
+        <v>0.3165031165957388</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3011348623392981</v>
+        <v>0.3011346275723388</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2633093697462227</v>
+        <v>0.2632131105442774</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2070312960910609</v>
+        <v>0.2082303932848189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2843817014153452</v>
+        <v>0.2851059649231872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.269873571962206</v>
+        <v>0.2689501419435105</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2508913106793136</v>
+        <v>0.2499863245350564</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2118096243804332</v>
+        <v>0.2111648070271425</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2805679182316212</v>
+        <v>0.2772097341097945</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2718452351745786</v>
+        <v>0.267643344255304</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2851437324417291</v>
+        <v>0.2868593983027993</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.280549739912922</v>
+        <v>0.2801461585415113</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3769303246717908</v>
+        <v>0.3719310457638752</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3711993842453967</v>
+        <v>0.3679553627677843</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.312265453068667</v>
+        <v>0.3163882328290744</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2401983254867726</v>
+        <v>0.2421669330051868</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3249216109305669</v>
+        <v>0.3240445637777786</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3165729453306806</v>
+        <v>0.3175227665844469</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.293545706259884</v>
+        <v>0.2928051873567525</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1436865492701634</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1522647041093896</v>
+        <v>0.1522647041093897</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.09026934262613301</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07913571203607171</v>
+        <v>0.07810096159735409</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1238823351201526</v>
+        <v>0.1237746486360712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1459072248582456</v>
+        <v>0.1454018054800799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1474148322111059</v>
+        <v>0.1472769074636141</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07460756818273119</v>
+        <v>0.07452951597508771</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1356592449137471</v>
+        <v>0.1341944335495389</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.128233062798696</v>
+        <v>0.1289778049921213</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1390337597807273</v>
+        <v>0.14039777394482</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08034011998642336</v>
+        <v>0.08056691181613278</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1337070452352402</v>
+        <v>0.1329197603685444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1421112570177165</v>
+        <v>0.1418454429769389</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1474619407131671</v>
+        <v>0.1478009835893881</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.107179547376808</v>
+        <v>0.1085281390166648</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1568012516498361</v>
+        <v>0.1571859045564364</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1793105207412196</v>
+        <v>0.1787787131412391</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1812736950608712</v>
+        <v>0.1813298014027675</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1024367484898642</v>
+        <v>0.1040814999849744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1716319225658524</v>
+        <v>0.1707409588358834</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1614537682635755</v>
+        <v>0.1614307268505651</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1663594744388392</v>
+        <v>0.1678178537619346</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1004962164494593</v>
+        <v>0.1015222979537879</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1590226688984984</v>
+        <v>0.1573041934962814</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.164026563062891</v>
+        <v>0.1649204165806184</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1696279236774175</v>
+        <v>0.1704351217786916</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06739046091538994</v>
+        <v>0.0693196200265464</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07803359536301364</v>
+        <v>0.07836423662264463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08858692776736497</v>
+        <v>0.08717198421582063</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1027591285177161</v>
+        <v>0.101727729598527</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04707916193798278</v>
+        <v>0.04538121509610728</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04174939999841413</v>
+        <v>0.04156076530589511</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07171717073358008</v>
+        <v>0.0720612652307699</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08732399584083846</v>
+        <v>0.08821574514683894</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06536568571675212</v>
+        <v>0.06339569883582673</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06617035957085204</v>
+        <v>0.06631214269061737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08589236879144205</v>
+        <v>0.08645066971071551</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1009676351407202</v>
+        <v>0.10108266059512</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1193739610570214</v>
+        <v>0.1226603308448467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1399246115532389</v>
+        <v>0.1443005679047026</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1440550207930229</v>
+        <v>0.1466772815751755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1576086785154132</v>
+        <v>0.1556409062395632</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09878826164848299</v>
+        <v>0.09258832331005543</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0887812688406807</v>
+        <v>0.09122577981060968</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1248183767990154</v>
+        <v>0.1266079719942045</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1267648391323869</v>
+        <v>0.1297808777933695</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1001934755714287</v>
+        <v>0.09861411890149058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.105328976744358</v>
+        <v>0.1057681055381412</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1273475145164799</v>
+        <v>0.1256863485462206</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1350169300904067</v>
+        <v>0.1337871450831983</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1527909604788607</v>
+        <v>0.1524250872157726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1582845595224775</v>
+        <v>0.1574500553526657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1570880229689027</v>
+        <v>0.1575340780385544</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1965404407195807</v>
+        <v>0.1963716085238934</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.17230235617471</v>
+        <v>0.1740490214704388</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1594864822789379</v>
+        <v>0.1609360823622699</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1781197021129037</v>
+        <v>0.1783696539094899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1691002088732387</v>
+        <v>0.1696114128289437</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1629369343679641</v>
+        <v>0.1626039905131224</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.181288529072806</v>
+        <v>0.1782020553263705</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.184058755799102</v>
+        <v>0.1839440762195732</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1824542713712728</v>
+        <v>0.1840948401794972</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.224542201698282</v>
+        <v>0.2252281945549759</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1999100635618307</v>
+        <v>0.2026772622555811</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1822706042882922</v>
+        <v>0.1815674662072741</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1974429419161771</v>
+        <v>0.1979766877431686</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1876213818463184</v>
+        <v>0.1884568484232895</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1806080832668187</v>
+        <v>0.1798004882318458</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>162787</v>
+        <v>164861</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>208398</v>
+        <v>206868</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>144646</v>
+        <v>146244</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>115889</v>
+        <v>118277</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>297581</v>
+        <v>294626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>397727</v>
+        <v>391406</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>266096</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>197785</v>
+        <v>197713</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>475680</v>
+        <v>478435</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>619445</v>
+        <v>621023</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>430412</v>
+        <v>428939</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>325065</v>
+        <v>323892</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>214466</v>
+        <v>213813</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>264172</v>
+        <v>261010</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>193341</v>
+        <v>190353</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>155257</v>
+        <v>156192</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>360530</v>
+        <v>360012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>466134</v>
+        <v>459951</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>328008</v>
+        <v>325142</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>234559</v>
+        <v>237656</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>551886</v>
+        <v>556409</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>707750</v>
+        <v>705839</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>504891</v>
+        <v>506406</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>380330</v>
+        <v>379370</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>133310</v>
+        <v>131567</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>240441</v>
+        <v>240232</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>293721</v>
+        <v>292704</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>323943</v>
+        <v>323640</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>117530</v>
+        <v>117407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>232284</v>
+        <v>229775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>246529</v>
+        <v>247961</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>295008</v>
+        <v>297902</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>261899</v>
+        <v>262638</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>488450</v>
+        <v>485574</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>559290</v>
+        <v>558244</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>636938</v>
+        <v>638403</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>180552</v>
+        <v>182824</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>304332</v>
+        <v>305079</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>360964</v>
+        <v>359894</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>398348</v>
+        <v>398471</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>161369</v>
+        <v>163960</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>293878</v>
+        <v>292353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>310396</v>
+        <v>310352</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>352989</v>
+        <v>356083</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>327606</v>
+        <v>330950</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>580931</v>
+        <v>574654</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>645539</v>
+        <v>649057</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>732681</v>
+        <v>736167</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36860</v>
+        <v>37915</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36827</v>
+        <v>36983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47208</v>
+        <v>46454</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>71812</v>
+        <v>71092</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22249</v>
+        <v>21447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18977</v>
+        <v>18891</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37561</v>
+        <v>37741</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>62356</v>
+        <v>62992</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>66644</v>
+        <v>64635</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>61306</v>
+        <v>61437</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>90756</v>
+        <v>91346</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>142658</v>
+        <v>142821</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65293</v>
+        <v>67091</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66035</v>
+        <v>68100</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>76766</v>
+        <v>78164</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110144</v>
+        <v>108768</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46686</v>
+        <v>43756</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40355</v>
+        <v>41466</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>65371</v>
+        <v>66309</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>90519</v>
+        <v>92673</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>102153</v>
+        <v>100542</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>97585</v>
+        <v>97992</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>134559</v>
+        <v>132804</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>190767</v>
+        <v>189030</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>512518</v>
+        <v>511291</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>515562</v>
+        <v>512844</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>540512</v>
+        <v>542047</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>668918</v>
+        <v>668344</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>573747</v>
+        <v>579564</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>572089</v>
+        <v>577289</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1203704</v>
+        <v>1205393</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1113875</v>
+        <v>1117242</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1145103</v>
+        <v>1142763</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>608109</v>
+        <v>597756</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>599513</v>
+        <v>599140</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>627793</v>
+        <v>633438</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>764221</v>
+        <v>766556</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>665678</v>
+        <v>674892</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>653817</v>
+        <v>651295</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1334287</v>
+        <v>1337894</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1235875</v>
+        <v>1241378</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1269294</v>
+        <v>1263619</v>
       </c>
     </row>
     <row r="20">
